--- a/Tables/Show.xlsx
+++ b/Tables/Show.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarthak\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\DMProject\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>show_id</t>
   </si>
@@ -33,16 +33,186 @@
   </si>
   <si>
     <t>synopsis</t>
+  </si>
+  <si>
+    <t>'Hugh Jackman makes the most of his final outing as Wolverine with a gritty, nuanced performance in a violent but surprisingly thoughtful superhero action film that defies genre conventions.'</t>
+  </si>
+  <si>
+    <t>'The Lego Batman Movie'</t>
+  </si>
+  <si>
+    <t>' Logan'</t>
+  </si>
+  <si>
+    <t>'Beauty and The Beast'</t>
+  </si>
+  <si>
+    <t>'La La Land'</t>
+  </si>
+  <si>
+    <t>'La La Land breathes new life into a bygone genre with thrillingly assured direction, powerful performances, and an irresistible excess of heart'</t>
+  </si>
+  <si>
+    <r>
+      <t>'The Lego Batman Movie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> continues its block-buster franchise's winning streak with another round of dizzyingly funny -- and beautifully animated -- family-friendly mayhem.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'With an enchanting cast, beautifully crafted songs, and a painterly eye for detail, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beauty and the Beast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> offers a faithful yet fresh retelling that honors its beloved source material.'</t>
+    </r>
+  </si>
+  <si>
+    <t>'A fast-talking mercenary with a morbid sense of humor is subjected to a rogue experiment that leaves him with accelerated healing powers and a quest for revenge.'</t>
+  </si>
+  <si>
+    <t>'Deal Pool'</t>
+  </si>
+  <si>
+    <t>'Fight Club'</t>
+  </si>
+  <si>
+    <t>'An insomniac office worker, looking for a way to change his life, crosses paths with a devil-may-care soap maker, forming an underground fight club that evolves into something much, much more.'</t>
+  </si>
+  <si>
+    <t>' The Theory of Everything'</t>
+  </si>
+  <si>
+    <t>'A look at the relationship between the famous physicist Stephen Hawking and his wife.'</t>
+  </si>
+  <si>
+    <t>Top Gun'</t>
+  </si>
+  <si>
+    <t>'As students at the United States Navy's elite fighter weapons school compete to be best in the class, one daring young pilot learns a few things from a civilian instructor that are not taught in the classroom.'</t>
+  </si>
+  <si>
+    <t>'The Imitation Game'</t>
+  </si>
+  <si>
+    <t>'During World War II, mathematician Alan Turing tries to crack the enigma code with help from fellow mathematicians.'</t>
+  </si>
+  <si>
+    <t>'A team of explorers travel through a wormhole in space in an attempt to ensure humanity's survival.'During World War II, mathematician Alan Turing tries to crack the enigma code with help from fellow mathematicians.'</t>
+  </si>
+  <si>
+    <t>'Interstellar'</t>
+  </si>
+  <si>
+    <t>'Hamlet'</t>
+  </si>
+  <si>
+    <t>'Othello'</t>
+  </si>
+  <si>
+    <t>'Much Ado About Nothing'</t>
+  </si>
+  <si>
+    <t>'Romeo and Juliet'</t>
+  </si>
+  <si>
+    <t>'Julius Caesar'</t>
+  </si>
+  <si>
+    <t>'As you like it'</t>
+  </si>
+  <si>
+    <t>'William Shakespeare's Hamlet follows the young prince Hamlet home to Denmark to attend his father's funeral. Hamlet is shocked to find his mother already remarried to his Uncle Claudius, the dead king's brother. And Hamlet is even more surprised when his father's ghost appears and declares that he was murdered. Exact dates are unknown, but scholars agree that Shakespeare published Hamlet between 1601 and 1603. Many believe that Hamlet is the best of Shakespeare's work, and the perfect play.'</t>
+  </si>
+  <si>
+    <t>Othello, a Moorish general in the Venetian army; his beloved wife, Desdemona; his loyal lieutenant, Cassio; and his trusted but ultimately unfaithful ensign, Iago'</t>
+  </si>
+  <si>
+    <t>'Much Ado About Nothing is generally considered one of Shakespeare's best comedies because it combines elements of mistaken identities, love, robust hilarity with more serious meditations on honour, shame, and court politics.'</t>
+  </si>
+  <si>
+    <t>'It is one of several plays written by Shakespeare based on true events from Roman history, which also include Coriolanus and Antony and Cleopatra.'</t>
+  </si>
+  <si>
+    <t>'The famous tragedy by shakespear, no more words needed'</t>
+  </si>
+  <si>
+    <t>'As You Like It follows its heroine Rosalind as she flees persecution in her uncle's court, accompanied by her cousin Celia to find safety and, eventually, love, in the Forest of Arden.'</t>
+  </si>
+  <si>
+    <t>' Beyond Magic'</t>
+  </si>
+  <si>
+    <t>'David Blaine blows the minds of the audience by his mind numbing tricks.'</t>
+  </si>
+  <si>
+    <t>'Oriental group dance'</t>
+  </si>
+  <si>
+    <t>The Great Ballet</t>
+  </si>
+  <si>
+    <t>'A enthralling performance showcasing great ballet'</t>
+  </si>
+  <si>
+    <t>'A comtemporary hip hop performance with embeeded elements of Salsa'</t>
+  </si>
+  <si>
+    <t>'The Phantom of the Opera'</t>
+  </si>
+  <si>
+    <t>'Treat your ears with the famous performance , highlighting great highs and lows along with beautifully accompanied music'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,8 +238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,29 +558,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="1" sqref="B1:B1048576 E11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="232.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Show.xlsx
+++ b/Tables/Show.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\DMProject\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditi Sonik\Documents\GitHub\DMProject\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>show_id</t>
   </si>
@@ -51,21 +51,6 @@
   </si>
   <si>
     <t>'La La Land breathes new life into a bygone genre with thrillingly assured direction, powerful performances, and an irresistible excess of heart'</t>
-  </si>
-  <si>
-    <r>
-      <t>'The Lego Batman Movie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> continues its block-buster franchise's winning streak with another round of dizzyingly funny -- and beautifully animated -- family-friendly mayhem.'</t>
-    </r>
   </si>
   <si>
     <r>
@@ -115,85 +100,163 @@
     <t>Top Gun'</t>
   </si>
   <si>
-    <t>'As students at the United States Navy's elite fighter weapons school compete to be best in the class, one daring young pilot learns a few things from a civilian instructor that are not taught in the classroom.'</t>
-  </si>
-  <si>
     <t>'The Imitation Game'</t>
   </si>
   <si>
     <t>'During World War II, mathematician Alan Turing tries to crack the enigma code with help from fellow mathematicians.'</t>
   </si>
   <si>
-    <t>'A team of explorers travel through a wormhole in space in an attempt to ensure humanity's survival.'During World War II, mathematician Alan Turing tries to crack the enigma code with help from fellow mathematicians.'</t>
-  </si>
-  <si>
     <t>'Interstellar'</t>
   </si>
   <si>
     <t>'Hamlet'</t>
   </si>
   <si>
+    <t>'1'</t>
+  </si>
+  <si>
+    <t>'2'</t>
+  </si>
+  <si>
+    <t>'3'</t>
+  </si>
+  <si>
+    <t>'4'</t>
+  </si>
+  <si>
+    <t>'5'</t>
+  </si>
+  <si>
+    <t>'6'</t>
+  </si>
+  <si>
+    <t>'7'</t>
+  </si>
+  <si>
+    <t>'8'</t>
+  </si>
+  <si>
+    <t>'9'</t>
+  </si>
+  <si>
+    <t>'10'</t>
+  </si>
+  <si>
+    <t>'11'</t>
+  </si>
+  <si>
+    <r>
+      <t>'The Lego Batman Movie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> continues its block-buster franchises winning streak with another round of dizzyingly funny -- and beautifully animated -- family-friendly mayhem.'</t>
+    </r>
+  </si>
+  <si>
+    <t>'As students at the United States Navys elite fighter weapons school compete to be best in the class, one daring young pilot learns a few things from a civilian instructor that are not taught in the classroom.'</t>
+  </si>
+  <si>
+    <t>'A team of explorers travel through a wormhole in space in an attempt to ensure humanitys survival. During World War II, mathematician Alan Turing tries to crack the enigma code with help from fellow mathematicians.'</t>
+  </si>
+  <si>
+    <t>'William Shakespeares Hamlet follows the young prince Hamlet home to Denmark to attend his fathers funeral. Hamlet is shocked to find his mother already remarried to his Uncle Claudius, the dead kings brother. And Hamlet is even more surprised when his fathers ghost appears and declares that he was murdered. Exact dates are unknown, but scholars agree that Shakespeare published Hamlet between 1601 and 1603. Many believe that Hamlet is the best of Shakespeares work, and the perfect play.'</t>
+  </si>
+  <si>
+    <t>'David Blaine blows the minds of the audience by his mind numbing tricks.'</t>
+  </si>
+  <si>
+    <t>' Beyond Magic'</t>
+  </si>
+  <si>
+    <t>'20'</t>
+  </si>
+  <si>
+    <t>'A comtemporary hip hop performance with embeeded elements of Salsa'</t>
+  </si>
+  <si>
+    <t>'Oriental group dance'</t>
+  </si>
+  <si>
+    <t>'19'</t>
+  </si>
+  <si>
+    <t>'A enthralling performance showcasing great ballet'</t>
+  </si>
+  <si>
+    <t>The Great Ballet</t>
+  </si>
+  <si>
+    <t>'18'</t>
+  </si>
+  <si>
+    <t>'Treat your ears with the famous performance , highlighting great highs and lows along with beautifully accompanied music'</t>
+  </si>
+  <si>
+    <t>'The Phantom of the Opera'</t>
+  </si>
+  <si>
+    <t>'17'</t>
+  </si>
+  <si>
+    <t>'As You Like It follows its heroine Rosalind as she flees persecution in her uncle's court, accompanied by her cousin Celia to find safety and, eventually, love, in the Forest of Arden.'</t>
+  </si>
+  <si>
+    <t>'As you like it'</t>
+  </si>
+  <si>
+    <t>'16'</t>
+  </si>
+  <si>
+    <t>'It is one of several plays written by Shakespeare based on true events from Roman history, which also include Coriolanus and Antony and Cleopatra.'</t>
+  </si>
+  <si>
+    <t>'Julius Caesar'</t>
+  </si>
+  <si>
+    <t>'15'</t>
+  </si>
+  <si>
+    <t>'The famous tragedy by shakespear, no more words needed'</t>
+  </si>
+  <si>
+    <t>'Romeo and Juliet'</t>
+  </si>
+  <si>
+    <t>'14'</t>
+  </si>
+  <si>
+    <t>'Much Ado About Nothing is generally considered one of Shakespeare's best comedies because it combines elements of mistaken identities, love, robust hilarity with more serious meditations on honour, shame, and court politics.'</t>
+  </si>
+  <si>
+    <t>'Much Ado About Nothing'</t>
+  </si>
+  <si>
+    <t>'13'</t>
+  </si>
+  <si>
+    <t>Othello, a Moorish general in the Venetian army; his beloved wife, Desdemona; his loyal lieutenant, Cassio; and his trusted but ultimately unfaithful ensign, Iago'</t>
+  </si>
+  <si>
     <t>'Othello'</t>
   </si>
   <si>
-    <t>'Much Ado About Nothing'</t>
-  </si>
-  <si>
-    <t>'Romeo and Juliet'</t>
-  </si>
-  <si>
-    <t>'Julius Caesar'</t>
-  </si>
-  <si>
-    <t>'As you like it'</t>
-  </si>
-  <si>
-    <t>'William Shakespeare's Hamlet follows the young prince Hamlet home to Denmark to attend his father's funeral. Hamlet is shocked to find his mother already remarried to his Uncle Claudius, the dead king's brother. And Hamlet is even more surprised when his father's ghost appears and declares that he was murdered. Exact dates are unknown, but scholars agree that Shakespeare published Hamlet between 1601 and 1603. Many believe that Hamlet is the best of Shakespeare's work, and the perfect play.'</t>
-  </si>
-  <si>
-    <t>Othello, a Moorish general in the Venetian army; his beloved wife, Desdemona; his loyal lieutenant, Cassio; and his trusted but ultimately unfaithful ensign, Iago'</t>
-  </si>
-  <si>
-    <t>'Much Ado About Nothing is generally considered one of Shakespeare's best comedies because it combines elements of mistaken identities, love, robust hilarity with more serious meditations on honour, shame, and court politics.'</t>
-  </si>
-  <si>
-    <t>'It is one of several plays written by Shakespeare based on true events from Roman history, which also include Coriolanus and Antony and Cleopatra.'</t>
-  </si>
-  <si>
-    <t>'The famous tragedy by shakespear, no more words needed'</t>
-  </si>
-  <si>
-    <t>'As You Like It follows its heroine Rosalind as she flees persecution in her uncle's court, accompanied by her cousin Celia to find safety and, eventually, love, in the Forest of Arden.'</t>
-  </si>
-  <si>
-    <t>' Beyond Magic'</t>
-  </si>
-  <si>
-    <t>'David Blaine blows the minds of the audience by his mind numbing tricks.'</t>
-  </si>
-  <si>
-    <t>'Oriental group dance'</t>
-  </si>
-  <si>
-    <t>The Great Ballet</t>
-  </si>
-  <si>
-    <t>'A enthralling performance showcasing great ballet'</t>
-  </si>
-  <si>
-    <t>'A comtemporary hip hop performance with embeeded elements of Salsa'</t>
-  </si>
-  <si>
-    <t>'The Phantom of the Opera'</t>
-  </si>
-  <si>
-    <t>'Treat your ears with the famous performance , highlighting great highs and lows along with beautifully accompanied music'</t>
+    <t>'12'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\'\'General\'"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,12 +301,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,20 +624,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="232.28515625" customWidth="1"/>
+    <col min="3" max="3" width="232.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -581,9 +648,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -592,31 +659,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -625,181 +692,184 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
